--- a/src/assets/products/cases/storm black/data.xlsx
+++ b/src/assets/products/cases/storm black/data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marketing.LINKWORLD\Desktop\Spec Sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140577A8-DCC5-40E1-8110-C0090FAE1CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0A6E8C2A-5CF9-4F69-8004-9D4F85E8514A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,9 @@
     <sheet name="Physical Specifications" sheetId="8" r:id="rId4"/>
     <sheet name="Compatibility" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -118,9 +112,6 @@
     <t>Up to 420 mm</t>
   </si>
   <si>
-    <t>SSI-CEB, ATX, Micro-ATX</t>
-  </si>
-  <si>
     <t>537.7 mm x 225 mm x 525 mm</t>
   </si>
   <si>
@@ -152,17 +143,28 @@
     <t>Supports radiators up to 280/360 mm in the front
 Supports radiators up to 360 mm on the top</t>
   </si>
+  <si>
+    <t>E-ATX(&lt;272mm), ATX, Micro-ATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -193,7 +195,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -497,23 +499,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F276E3DF-8275-48EA-9E9B-6D1971284CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -530,25 +532,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B51101-30B9-4D69-85BF-CE14D02AA47F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -556,7 +559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -564,15 +567,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -580,7 +583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -588,34 +591,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A252E-D43A-4BB4-8D30-1389B8FB56CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -623,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -631,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -639,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -647,101 +651,103 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE344899-0143-4EBA-BFDB-76F505FBD812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B9034-FD5D-4E31-AEE2-52DC6AB54809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="44.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -750,6 +756,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>